--- a/new_classification_db/N5 - REJECTED CLAIMS.xlsx
+++ b/new_classification_db/N5 - REJECTED CLAIMS.xlsx
@@ -363,13 +363,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.8744939271255"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.6761133603239"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/new_classification_db/N5 - REJECTED CLAIMS.xlsx
+++ b/new_classification_db/N5 - REJECTED CLAIMS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="58">
   <si>
     <t xml:space="preserve">NOTIFICATION TYPE</t>
   </si>
@@ -67,10 +67,7 @@
     <t xml:space="preserve">INADMITIR A TRAMITE LA DEMANDA</t>
   </si>
   <si>
-    <t xml:space="preserve">INADMITIR A TRÁMITE LA PETICION </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE PROCEDIMIENTO MONITORIO</t>
+    <t xml:space="preserve">INADMITIR A TRÁMITE LA PETICIÓN DE PROCEDIMIENTO MONITORIO</t>
   </si>
   <si>
     <t xml:space="preserve">NO ADMITIR A LA TRAMITE LA DEMANDA</t>
@@ -358,18 +355,18 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.8744939271255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.6234817813765"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.7813765182186"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -483,16 +480,13 @@
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -500,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -508,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -516,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -524,13 +518,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -538,13 +532,13 @@
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -552,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -560,19 +554,19 @@
         <v>2</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="0" t="s">
+      <c r="E22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -580,17 +574,17 @@
         <v>2</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -598,19 +592,19 @@
         <v>2</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -618,19 +612,19 @@
         <v>2</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -638,17 +632,17 @@
         <v>2</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -656,157 +650,157 @@
         <v>2</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -814,7 +808,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -822,7 +816,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -830,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -838,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -846,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -854,7 +848,7 @@
         <v>2</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -862,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -870,7 +864,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
